--- a/CLINICA KENNEDY SAMBORONDON/20240400558 HUMERO PROXIMAL.xlsx
+++ b/CLINICA KENNEDY SAMBORONDON/20240400558 HUMERO PROXIMAL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1292,7 +1292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="14">
+  <numFmts count="12">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1303,10 +1303,8 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ [$$-300A]* #,##0.00_ ;_ [$$-300A]* \-#,##0.00_ ;_ [$$-300A]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="_ [$$-300A]* #,##0.00_ ;_ [$$-300A]* \-#,##0.00_ ;_ [$$-300A]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1844,16 +1842,16 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2025,46 +2023,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2228,13 +2187,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="1" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="1" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -2699,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D138" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
@@ -3100,13 +3098,13 @@
     <row r="2" spans="1:14" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -3117,7 +3115,7 @@
     <row r="3" spans="1:14" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
-      <c r="C3" s="76"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="42" t="s">
         <v>24</v>
       </c>
@@ -3132,13 +3130,13 @@
     <row r="4" spans="1:14" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -3149,19 +3147,19 @@
     <row r="5" spans="1:14" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1">
@@ -3170,17 +3168,17 @@
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="81">
+      <c r="C7" s="68">
         <f ca="1">NOW()</f>
-        <v>45400.352047106484</v>
+        <v>45404.365825578701</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>1</v>
@@ -3211,7 +3209,7 @@
       <c r="D9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="69" t="s">
         <v>353</v>
       </c>
       <c r="L9" s="2"/>
@@ -3227,10 +3225,10 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="26" t="s">
         <v>354</v>
       </c>
@@ -3398,14 +3396,14 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="70">
         <v>0</v>
       </c>
       <c r="E24" s="13"/>
@@ -3421,16 +3419,16 @@
       <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="85">
+      <c r="B25" s="72">
         <v>201124170</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="70">
         <v>1</v>
       </c>
       <c r="E25" s="13"/>
@@ -3446,16 +3444,16 @@
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="87">
+      <c r="B26" s="74">
         <v>2000094732</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="70">
         <v>1</v>
       </c>
       <c r="E26" s="13"/>
@@ -3471,16 +3469,16 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="72">
         <v>2000086732</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="70">
         <v>1</v>
       </c>
       <c r="E27" s="13"/>
@@ -3496,16 +3494,16 @@
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="70">
         <v>1</v>
       </c>
       <c r="E28" s="13"/>
@@ -3521,16 +3519,16 @@
       <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="72">
         <v>1800092435</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="70">
         <v>1</v>
       </c>
       <c r="E29" s="13"/>
@@ -3546,14 +3544,14 @@
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="70">
         <v>0</v>
       </c>
       <c r="E30" s="13"/>
@@ -3569,16 +3567,16 @@
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="85">
+      <c r="B31" s="72">
         <v>2000086733</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="70">
         <v>1</v>
       </c>
       <c r="E31" s="13"/>
@@ -3594,14 +3592,14 @@
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="D32" s="83">
+      <c r="D32" s="70">
         <v>0</v>
       </c>
       <c r="E32" s="13"/>
@@ -3617,10 +3615,10 @@
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="84">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="71">
         <v>6</v>
       </c>
       <c r="E33" s="13"/>
@@ -3631,14 +3629,14 @@
       <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="83">
+      <c r="D34" s="70">
         <v>0</v>
       </c>
       <c r="E34" s="13"/>
@@ -3654,16 +3652,16 @@
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="70">
         <v>1</v>
       </c>
       <c r="E35" s="13"/>
@@ -3679,16 +3677,16 @@
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="70">
         <v>1</v>
       </c>
       <c r="E36" s="13"/>
@@ -3704,16 +3702,16 @@
       <c r="M36" s="30"/>
     </row>
     <row r="37" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="70">
         <v>1</v>
       </c>
       <c r="E37" s="13"/>
@@ -3729,16 +3727,16 @@
       <c r="M37" s="30"/>
     </row>
     <row r="38" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="70">
         <v>1</v>
       </c>
       <c r="E38" s="13"/>
@@ -3754,16 +3752,16 @@
       <c r="M38" s="30"/>
     </row>
     <row r="39" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D39" s="70">
         <v>1</v>
       </c>
       <c r="E39" s="13"/>
@@ -3779,16 +3777,16 @@
       <c r="M39" s="30"/>
     </row>
     <row r="40" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="83">
+      <c r="D40" s="70">
         <v>1</v>
       </c>
       <c r="E40" s="13"/>
@@ -3804,10 +3802,10 @@
       <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="84">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="71">
         <v>6</v>
       </c>
       <c r="E41" s="13"/>
@@ -3818,16 +3816,16 @@
       <c r="M41" s="30"/>
     </row>
     <row r="42" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="79">
         <v>1</v>
       </c>
       <c r="E42" s="13"/>
@@ -3840,16 +3838,16 @@
       <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="D43" s="93">
+      <c r="D43" s="80">
         <v>1</v>
       </c>
       <c r="E43" s="13"/>
@@ -3865,16 +3863,16 @@
       <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="93">
+      <c r="D44" s="80">
         <v>1</v>
       </c>
       <c r="E44" s="13"/>
@@ -3890,16 +3888,16 @@
       <c r="M44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="B45" s="87">
+      <c r="B45" s="74">
         <v>220242826</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="93">
+      <c r="D45" s="80">
         <v>1</v>
       </c>
       <c r="E45" s="13"/>
@@ -3915,16 +3913,16 @@
       <c r="M45" s="30"/>
     </row>
     <row r="46" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="80">
         <v>1</v>
       </c>
       <c r="E46" s="13"/>
@@ -3940,16 +3938,16 @@
       <c r="M46" s="30"/>
     </row>
     <row r="47" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="D47" s="93">
+      <c r="D47" s="80">
         <v>1</v>
       </c>
       <c r="E47" s="13"/>
@@ -3965,16 +3963,16 @@
       <c r="M47" s="30"/>
     </row>
     <row r="48" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="D48" s="93">
+      <c r="D48" s="80">
         <v>1</v>
       </c>
       <c r="E48" s="13"/>
@@ -3990,10 +3988,10 @@
       <c r="M48" s="30"/>
     </row>
     <row r="49" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="94">
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="81">
         <v>7</v>
       </c>
       <c r="E49" s="13"/>
@@ -4004,16 +4002,16 @@
       <c r="M49" s="30"/>
     </row>
     <row r="50" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="88">
         <v>1</v>
       </c>
       <c r="E50" s="47"/>
@@ -4029,16 +4027,16 @@
       <c r="M50" s="30"/>
     </row>
     <row r="51" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="103" t="s">
+      <c r="C51" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="101">
+      <c r="D51" s="88">
         <v>1</v>
       </c>
       <c r="E51" s="47"/>
@@ -4054,16 +4052,16 @@
       <c r="M51" s="30"/>
     </row>
     <row r="52" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="99" t="s">
+      <c r="B52" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="100" t="s">
+      <c r="C52" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="101">
+      <c r="D52" s="88">
         <v>1</v>
       </c>
       <c r="E52" s="47"/>
@@ -4079,16 +4077,16 @@
       <c r="M52" s="30"/>
     </row>
     <row r="53" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="100" t="s">
+      <c r="C53" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="101">
+      <c r="D53" s="88">
         <v>1</v>
       </c>
       <c r="E53" s="47"/>
@@ -4104,16 +4102,16 @@
       <c r="M53" s="30"/>
     </row>
     <row r="54" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="104" t="s">
+      <c r="B54" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="100" t="s">
+      <c r="C54" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="101">
+      <c r="D54" s="88">
         <v>1</v>
       </c>
       <c r="E54" s="47"/>
@@ -4129,16 +4127,16 @@
       <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A55" s="99" t="s">
+      <c r="A55" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="101">
+      <c r="D55" s="88">
         <v>1</v>
       </c>
       <c r="E55" s="47"/>
@@ -4154,16 +4152,16 @@
       <c r="M55" s="30"/>
     </row>
     <row r="56" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C56" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="101">
+      <c r="D56" s="88">
         <v>1</v>
       </c>
       <c r="E56" s="47"/>
@@ -4179,16 +4177,16 @@
       <c r="M56" s="30"/>
     </row>
     <row r="57" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="C57" s="100" t="s">
+      <c r="C57" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="101">
+      <c r="D57" s="88">
         <v>1</v>
       </c>
       <c r="E57" s="47"/>
@@ -4204,16 +4202,16 @@
       <c r="M57" s="30"/>
     </row>
     <row r="58" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="100" t="s">
+      <c r="C58" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="101">
+      <c r="D58" s="88">
         <v>1</v>
       </c>
       <c r="E58" s="47"/>
@@ -4229,16 +4227,16 @@
       <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A59" s="105" t="s">
+      <c r="A59" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="100" t="s">
+      <c r="C59" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="101">
+      <c r="D59" s="88">
         <v>1</v>
       </c>
       <c r="E59" s="47"/>
@@ -4254,10 +4252,10 @@
       <c r="M59" s="30"/>
     </row>
     <row r="60" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A60" s="106"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="107">
+      <c r="A60" s="93"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="94">
         <v>10</v>
       </c>
       <c r="E60" s="47"/>
@@ -4286,16 +4284,16 @@
       <c r="M61" s="30"/>
     </row>
     <row r="62" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="111">
+      <c r="B62" s="98">
         <v>200112210</v>
       </c>
-      <c r="C62" s="123" t="s">
+      <c r="C62" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="110">
+      <c r="D62" s="97">
         <v>3</v>
       </c>
       <c r="E62" s="47"/>
@@ -4311,16 +4309,16 @@
       <c r="M62" s="30"/>
     </row>
     <row r="63" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="111">
+      <c r="B63" s="98">
         <v>220142153</v>
       </c>
-      <c r="C63" s="123" t="s">
+      <c r="C63" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="110">
+      <c r="D63" s="97">
         <v>1</v>
       </c>
       <c r="E63" s="47"/>
@@ -4336,16 +4334,16 @@
       <c r="M63" s="30"/>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A64" s="112" t="s">
+      <c r="A64" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="111">
+      <c r="B64" s="98">
         <v>220647543</v>
       </c>
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="110">
+      <c r="D64" s="97">
         <v>2</v>
       </c>
       <c r="E64" s="47"/>
@@ -4361,16 +4359,16 @@
       <c r="M64" s="30"/>
     </row>
     <row r="65" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="111">
+      <c r="B65" s="98">
         <v>220142153</v>
       </c>
-      <c r="C65" s="123" t="s">
+      <c r="C65" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="110">
+      <c r="D65" s="97">
         <v>1</v>
       </c>
       <c r="E65" s="47"/>
@@ -4386,16 +4384,16 @@
       <c r="M65" s="30"/>
     </row>
     <row r="66" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A66" s="112" t="s">
+      <c r="A66" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="111">
+      <c r="B66" s="98">
         <v>2300000114</v>
       </c>
-      <c r="C66" s="123" t="s">
+      <c r="C66" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="110">
+      <c r="D66" s="97">
         <v>1</v>
       </c>
       <c r="E66" s="47"/>
@@ -4411,16 +4409,16 @@
       <c r="M66" s="30"/>
     </row>
     <row r="67" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="111">
+      <c r="B67" s="98">
         <v>2300021659</v>
       </c>
-      <c r="C67" s="123" t="s">
+      <c r="C67" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="110">
+      <c r="D67" s="97">
         <v>4</v>
       </c>
       <c r="E67" s="47"/>
@@ -4436,16 +4434,16 @@
       <c r="M67" s="30"/>
     </row>
     <row r="68" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="111">
+      <c r="B68" s="98">
         <v>200112212</v>
       </c>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="110">
+      <c r="D68" s="97">
         <v>4</v>
       </c>
       <c r="E68" s="47"/>
@@ -4461,16 +4459,16 @@
       <c r="M68" s="30"/>
     </row>
     <row r="69" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="111">
+      <c r="B69" s="98">
         <v>200112212</v>
       </c>
-      <c r="C69" s="123" t="s">
+      <c r="C69" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="110">
+      <c r="D69" s="97">
         <v>4</v>
       </c>
       <c r="E69" s="47"/>
@@ -4486,16 +4484,16 @@
       <c r="M69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A70" s="112" t="s">
+      <c r="A70" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="111">
+      <c r="B70" s="98">
         <v>200112213</v>
       </c>
-      <c r="C70" s="123" t="s">
+      <c r="C70" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="110">
+      <c r="D70" s="97">
         <v>4</v>
       </c>
       <c r="E70" s="47"/>
@@ -4511,16 +4509,16 @@
       <c r="M70" s="30"/>
     </row>
     <row r="71" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A71" s="112" t="s">
+      <c r="A71" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="111">
+      <c r="B71" s="98">
         <v>200112214</v>
       </c>
-      <c r="C71" s="123" t="s">
+      <c r="C71" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="110">
+      <c r="D71" s="97">
         <v>4</v>
       </c>
       <c r="E71" s="47"/>
@@ -4536,16 +4534,16 @@
       <c r="M71" s="30"/>
     </row>
     <row r="72" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A72" s="112" t="s">
+      <c r="A72" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="111">
+      <c r="B72" s="98">
         <v>191211231</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="110">
+      <c r="D72" s="97">
         <v>1</v>
       </c>
       <c r="E72" s="47"/>
@@ -4561,16 +4559,16 @@
       <c r="M72" s="30"/>
     </row>
     <row r="73" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="111">
+      <c r="B73" s="98">
         <v>2300038499</v>
       </c>
-      <c r="C73" s="123" t="s">
+      <c r="C73" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="110">
+      <c r="D73" s="97">
         <v>3</v>
       </c>
       <c r="E73" s="47"/>
@@ -4586,16 +4584,16 @@
       <c r="M73" s="30"/>
     </row>
     <row r="74" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A74" s="112" t="s">
+      <c r="A74" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="111">
+      <c r="B74" s="98">
         <v>200112216</v>
       </c>
-      <c r="C74" s="123" t="s">
+      <c r="C74" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="110">
+      <c r="D74" s="97">
         <v>4</v>
       </c>
       <c r="E74" s="47"/>
@@ -4611,16 +4609,16 @@
       <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="111">
+      <c r="B75" s="98">
         <v>200112216</v>
       </c>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="110">
+      <c r="D75" s="97">
         <v>2</v>
       </c>
       <c r="E75" s="47"/>
@@ -4636,16 +4634,16 @@
       <c r="M75" s="30"/>
     </row>
     <row r="76" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="111" t="s">
+      <c r="B76" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="123" t="s">
+      <c r="C76" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="97">
         <v>1</v>
       </c>
       <c r="E76" s="47"/>
@@ -4661,16 +4659,16 @@
       <c r="M76" s="30"/>
     </row>
     <row r="77" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A77" s="112" t="s">
+      <c r="A77" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="111">
+      <c r="B77" s="98">
         <v>220243166</v>
       </c>
-      <c r="C77" s="123" t="s">
+      <c r="C77" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="97">
         <v>1</v>
       </c>
       <c r="E77" s="47"/>
@@ -4686,16 +4684,16 @@
       <c r="M77" s="30"/>
     </row>
     <row r="78" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A78" s="112" t="s">
+      <c r="A78" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="111">
+      <c r="B78" s="98">
         <v>200112217</v>
       </c>
-      <c r="C78" s="123" t="s">
+      <c r="C78" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="110">
+      <c r="D78" s="97">
         <v>4</v>
       </c>
       <c r="E78" s="47"/>
@@ -4711,16 +4709,16 @@
       <c r="M78" s="30"/>
     </row>
     <row r="79" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A79" s="112" t="s">
+      <c r="A79" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="111">
+      <c r="B79" s="98">
         <v>200112217</v>
       </c>
-      <c r="C79" s="123" t="s">
+      <c r="C79" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="110">
+      <c r="D79" s="97">
         <v>2</v>
       </c>
       <c r="E79" s="47"/>
@@ -4736,16 +4734,16 @@
       <c r="M79" s="30"/>
     </row>
     <row r="80" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A80" s="112" t="s">
+      <c r="A80" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="111">
+      <c r="B80" s="98">
         <v>210835158</v>
       </c>
-      <c r="C80" s="123" t="s">
+      <c r="C80" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="110">
+      <c r="D80" s="97">
         <v>2</v>
       </c>
       <c r="E80" s="47"/>
@@ -4761,16 +4759,16 @@
       <c r="M80" s="30"/>
     </row>
     <row r="81" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A81" s="112" t="s">
+      <c r="A81" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="111">
+      <c r="B81" s="98">
         <v>200112217</v>
       </c>
-      <c r="C81" s="123" t="s">
+      <c r="C81" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="110">
+      <c r="D81" s="97">
         <v>2</v>
       </c>
       <c r="E81" s="47"/>
@@ -4786,16 +4784,16 @@
       <c r="M81" s="30"/>
     </row>
     <row r="82" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A82" s="112" t="s">
+      <c r="A82" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="111">
+      <c r="B82" s="98">
         <v>2300059818</v>
       </c>
-      <c r="C82" s="123" t="s">
+      <c r="C82" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="110">
+      <c r="D82" s="97">
         <v>2</v>
       </c>
       <c r="E82" s="47"/>
@@ -4811,16 +4809,16 @@
       <c r="M82" s="30"/>
     </row>
     <row r="83" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A83" s="112" t="s">
+      <c r="A83" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="111">
+      <c r="B83" s="98">
         <v>200112217</v>
       </c>
-      <c r="C83" s="123" t="s">
+      <c r="C83" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="110">
+      <c r="D83" s="97">
         <v>3</v>
       </c>
       <c r="E83" s="47"/>
@@ -4836,16 +4834,16 @@
       <c r="M83" s="30"/>
     </row>
     <row r="84" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A84" s="112" t="s">
+      <c r="A84" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="111">
+      <c r="B84" s="98">
         <v>2300007346</v>
       </c>
-      <c r="C84" s="123" t="s">
+      <c r="C84" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="110">
+      <c r="D84" s="97">
         <v>1</v>
       </c>
       <c r="E84" s="47"/>
@@ -4861,16 +4859,16 @@
       <c r="M84" s="30"/>
     </row>
     <row r="85" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A85" s="112" t="s">
+      <c r="A85" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="111">
+      <c r="B85" s="98">
         <v>200112217</v>
       </c>
-      <c r="C85" s="123" t="s">
+      <c r="C85" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="110">
+      <c r="D85" s="97">
         <v>4</v>
       </c>
       <c r="E85" s="47"/>
@@ -4886,16 +4884,16 @@
       <c r="M85" s="30"/>
     </row>
     <row r="86" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A86" s="112" t="s">
+      <c r="A86" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="111">
+      <c r="B86" s="98">
         <v>220647532</v>
       </c>
-      <c r="C86" s="123" t="s">
+      <c r="C86" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="110">
+      <c r="D86" s="97">
         <v>2</v>
       </c>
       <c r="E86" s="47"/>
@@ -4911,16 +4909,16 @@
       <c r="M86" s="30"/>
     </row>
     <row r="87" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="111">
+      <c r="B87" s="98">
         <v>200112216</v>
       </c>
-      <c r="C87" s="123" t="s">
+      <c r="C87" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="110">
+      <c r="D87" s="97">
         <v>2</v>
       </c>
       <c r="E87" s="47"/>
@@ -4936,16 +4934,16 @@
       <c r="M87" s="30"/>
     </row>
     <row r="88" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A88" s="112" t="s">
+      <c r="A88" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="111">
+      <c r="B88" s="98">
         <v>200112216</v>
       </c>
-      <c r="C88" s="123" t="s">
+      <c r="C88" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="110">
+      <c r="D88" s="97">
         <v>2</v>
       </c>
       <c r="E88" s="47"/>
@@ -4961,16 +4959,16 @@
       <c r="M88" s="30"/>
     </row>
     <row r="89" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A89" s="112" t="s">
+      <c r="A89" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="111" t="s">
+      <c r="B89" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="110">
+      <c r="D89" s="97">
         <v>2</v>
       </c>
       <c r="E89" s="47"/>
@@ -4986,16 +4984,16 @@
       <c r="M89" s="30"/>
     </row>
     <row r="90" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A90" s="112" t="s">
+      <c r="A90" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="111">
+      <c r="B90" s="98">
         <v>220242605</v>
       </c>
-      <c r="C90" s="123" t="s">
+      <c r="C90" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="110">
+      <c r="D90" s="97">
         <v>4</v>
       </c>
       <c r="E90" s="47"/>
@@ -5011,16 +5009,16 @@
       <c r="M90" s="30"/>
     </row>
     <row r="91" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="B91" s="111" t="s">
+      <c r="B91" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="123" t="s">
+      <c r="C91" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="D91" s="110">
+      <c r="D91" s="97">
         <v>4</v>
       </c>
       <c r="E91" s="47"/>
@@ -5036,16 +5034,16 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A92" s="112" t="s">
+      <c r="A92" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="111" t="s">
+      <c r="B92" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="D92" s="110">
+      <c r="D92" s="97">
         <v>4</v>
       </c>
       <c r="E92" s="47"/>
@@ -5061,16 +5059,16 @@
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A93" s="112" t="s">
+      <c r="A93" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="111" t="s">
+      <c r="B93" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="123" t="s">
+      <c r="C93" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="D93" s="110">
+      <c r="D93" s="97">
         <v>4</v>
       </c>
       <c r="E93" s="47"/>
@@ -5086,16 +5084,16 @@
       <c r="M93" s="30"/>
     </row>
     <row r="94" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="111" t="s">
+      <c r="B94" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="C94" s="123" t="s">
+      <c r="C94" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="110">
+      <c r="D94" s="97">
         <v>4</v>
       </c>
       <c r="E94" s="47"/>
@@ -5111,10 +5109,10 @@
       <c r="M94" s="30"/>
     </row>
     <row r="95" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A95" s="112"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="123"/>
-      <c r="D95" s="122">
+      <c r="A95" s="99"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="109">
         <v>88</v>
       </c>
       <c r="E95" s="47"/>
@@ -5125,16 +5123,16 @@
       <c r="M95" s="30"/>
     </row>
     <row r="96" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A96" s="117" t="s">
+      <c r="A96" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="117">
+      <c r="B96" s="104">
         <v>2100004807</v>
       </c>
-      <c r="C96" s="124" t="s">
+      <c r="C96" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="110">
+      <c r="D96" s="97">
         <v>6</v>
       </c>
       <c r="E96" s="47"/>
@@ -5150,16 +5148,16 @@
       <c r="M96" s="30"/>
     </row>
     <row r="97" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A97" s="118" t="s">
+      <c r="A97" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="118">
+      <c r="B97" s="105">
         <v>2100010641</v>
       </c>
-      <c r="C97" s="125" t="s">
+      <c r="C97" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D97" s="110">
+      <c r="D97" s="97">
         <v>6</v>
       </c>
       <c r="E97" s="47"/>
@@ -5175,16 +5173,16 @@
       <c r="M97" s="30"/>
     </row>
     <row r="98" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="104" t="s">
         <v>363</v>
       </c>
-      <c r="C98" s="124" t="s">
+      <c r="C98" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="110">
+      <c r="D98" s="97">
         <v>1</v>
       </c>
       <c r="E98" s="47"/>
@@ -5200,16 +5198,16 @@
       <c r="M98" s="30"/>
     </row>
     <row r="99" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="117" t="s">
+      <c r="B99" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="C99" s="124" t="s">
+      <c r="C99" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="D99" s="110">
+      <c r="D99" s="97">
         <v>5</v>
       </c>
       <c r="E99" s="47"/>
@@ -5225,16 +5223,16 @@
       <c r="M99" s="30"/>
     </row>
     <row r="100" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A100" s="118" t="s">
+      <c r="A100" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="118" t="s">
+      <c r="B100" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="125" t="s">
+      <c r="C100" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="D100" s="110">
+      <c r="D100" s="97">
         <v>6</v>
       </c>
       <c r="E100" s="47"/>
@@ -5250,16 +5248,16 @@
       <c r="M100" s="30"/>
     </row>
     <row r="101" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A101" s="117" t="s">
+      <c r="A101" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="117">
+      <c r="B101" s="104">
         <v>2100017484</v>
       </c>
-      <c r="C101" s="124" t="s">
+      <c r="C101" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="110">
+      <c r="D101" s="97">
         <v>6</v>
       </c>
       <c r="E101" s="47"/>
@@ -5275,16 +5273,16 @@
       <c r="M101" s="30"/>
     </row>
     <row r="102" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A102" s="118" t="s">
+      <c r="A102" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="118" t="s">
+      <c r="B102" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="125" t="s">
+      <c r="C102" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="D102" s="110">
+      <c r="D102" s="97">
         <v>6</v>
       </c>
       <c r="E102" s="47"/>
@@ -5300,16 +5298,16 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A103" s="117" t="s">
+      <c r="A103" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="117" t="s">
+      <c r="B103" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="124" t="s">
+      <c r="C103" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="110">
+      <c r="D103" s="97">
         <v>6</v>
       </c>
       <c r="E103" s="47"/>
@@ -5325,16 +5323,16 @@
       <c r="M103" s="30"/>
     </row>
     <row r="104" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A104" s="118" t="s">
+      <c r="A104" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="118" t="s">
+      <c r="B104" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="125" t="s">
+      <c r="C104" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="110">
+      <c r="D104" s="97">
         <v>6</v>
       </c>
       <c r="E104" s="47"/>
@@ -5350,16 +5348,16 @@
       <c r="M104" s="30"/>
     </row>
     <row r="105" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A105" s="117" t="s">
+      <c r="A105" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="117" t="s">
+      <c r="B105" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="124" t="s">
+      <c r="C105" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="110">
+      <c r="D105" s="97">
         <v>6</v>
       </c>
       <c r="E105" s="47"/>
@@ -5375,16 +5373,16 @@
       <c r="M105" s="30"/>
     </row>
     <row r="106" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A106" s="118" t="s">
+      <c r="A106" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="118" t="s">
+      <c r="B106" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="125" t="s">
+      <c r="C106" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="110">
+      <c r="D106" s="97">
         <v>6</v>
       </c>
       <c r="E106" s="47"/>
@@ -5400,16 +5398,16 @@
       <c r="M106" s="30"/>
     </row>
     <row r="107" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A107" s="117" t="s">
+      <c r="A107" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="117" t="s">
+      <c r="B107" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="124" t="s">
+      <c r="C107" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="110">
+      <c r="D107" s="97">
         <v>6</v>
       </c>
       <c r="E107" s="47"/>
@@ -5425,16 +5423,16 @@
       <c r="M107" s="30"/>
     </row>
     <row r="108" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A108" s="118" t="s">
+      <c r="A108" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="118" t="s">
+      <c r="B108" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="C108" s="125" t="s">
+      <c r="C108" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D108" s="110">
+      <c r="D108" s="97">
         <v>6</v>
       </c>
       <c r="E108" s="47"/>
@@ -5450,16 +5448,16 @@
       <c r="M108" s="30"/>
     </row>
     <row r="109" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A109" s="117" t="s">
+      <c r="A109" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="117" t="s">
+      <c r="B109" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="124" t="s">
+      <c r="C109" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="D109" s="110">
+      <c r="D109" s="97">
         <v>5</v>
       </c>
       <c r="E109" s="47"/>
@@ -5475,16 +5473,16 @@
       <c r="M109" s="30"/>
     </row>
     <row r="110" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A110" s="117" t="s">
+      <c r="A110" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="117" t="s">
+      <c r="B110" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="C110" s="124" t="s">
+      <c r="C110" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="110">
+      <c r="D110" s="97">
         <v>1</v>
       </c>
       <c r="E110" s="47"/>
@@ -5500,16 +5498,16 @@
       <c r="M110" s="30"/>
     </row>
     <row r="111" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A111" s="118" t="s">
+      <c r="A111" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="125" t="s">
+      <c r="C111" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="110">
+      <c r="D111" s="97">
         <v>5</v>
       </c>
       <c r="E111" s="47"/>
@@ -5525,16 +5523,16 @@
       <c r="M111" s="30"/>
     </row>
     <row r="112" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A112" s="117" t="s">
+      <c r="A112" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B112" s="117" t="s">
+      <c r="B112" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="C112" s="124" t="s">
+      <c r="C112" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="D112" s="110">
+      <c r="D112" s="97">
         <v>2</v>
       </c>
       <c r="E112" s="47"/>
@@ -5550,16 +5548,16 @@
       <c r="M112" s="30"/>
     </row>
     <row r="113" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A113" s="117" t="s">
+      <c r="A113" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="117" t="s">
+      <c r="B113" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C113" s="124" t="s">
+      <c r="C113" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="110">
+      <c r="D113" s="97">
         <v>4</v>
       </c>
       <c r="E113" s="47"/>
@@ -5575,16 +5573,16 @@
       <c r="M113" s="30"/>
     </row>
     <row r="114" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A114" s="118" t="s">
+      <c r="A114" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="118" t="s">
+      <c r="B114" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="125" t="s">
+      <c r="C114" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="110">
+      <c r="D114" s="97">
         <v>2</v>
       </c>
       <c r="E114" s="47"/>
@@ -5600,16 +5598,16 @@
       <c r="M114" s="30"/>
     </row>
     <row r="115" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A115" s="118" t="s">
+      <c r="A115" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="B115" s="118" t="s">
+      <c r="B115" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="125" t="s">
+      <c r="C115" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D115" s="110">
+      <c r="D115" s="97">
         <v>2</v>
       </c>
       <c r="E115" s="47"/>
@@ -5625,16 +5623,16 @@
       <c r="M115" s="30"/>
     </row>
     <row r="116" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="B116" s="117" t="s">
+      <c r="B116" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="C116" s="124" t="s">
+      <c r="C116" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="D116" s="110">
+      <c r="D116" s="97">
         <v>5</v>
       </c>
       <c r="E116" s="47"/>
@@ -5650,16 +5648,16 @@
       <c r="M116" s="30"/>
     </row>
     <row r="117" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A117" s="118" t="s">
+      <c r="A117" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="125" t="s">
+      <c r="C117" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D117" s="110">
+      <c r="D117" s="97">
         <v>2</v>
       </c>
       <c r="E117" s="47"/>
@@ -5675,16 +5673,16 @@
       <c r="M117" s="30"/>
     </row>
     <row r="118" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A118" s="117" t="s">
+      <c r="A118" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B118" s="117" t="s">
+      <c r="B118" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="124" t="s">
+      <c r="C118" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="110">
+      <c r="D118" s="97">
         <v>2</v>
       </c>
       <c r="E118" s="47"/>
@@ -5700,16 +5698,16 @@
       <c r="M118" s="30"/>
     </row>
     <row r="119" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A119" s="118" t="s">
+      <c r="A119" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="118" t="s">
+      <c r="B119" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="C119" s="125" t="s">
+      <c r="C119" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="110">
+      <c r="D119" s="97">
         <v>6</v>
       </c>
       <c r="E119" s="47"/>
@@ -5725,16 +5723,16 @@
       <c r="M119" s="30"/>
     </row>
     <row r="120" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A120" s="117" t="s">
+      <c r="A120" s="104" t="s">
         <v>279</v>
       </c>
-      <c r="B120" s="117" t="s">
+      <c r="B120" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="C120" s="124" t="s">
+      <c r="C120" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="D120" s="110">
+      <c r="D120" s="97">
         <v>6</v>
       </c>
       <c r="E120" s="47"/>
@@ -5750,16 +5748,16 @@
       <c r="M120" s="30"/>
     </row>
     <row r="121" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A121" s="117" t="s">
+      <c r="A121" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="117">
+      <c r="B121" s="104">
         <v>2100007516</v>
       </c>
-      <c r="C121" s="124" t="s">
+      <c r="C121" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="D121" s="110">
+      <c r="D121" s="97">
         <v>6</v>
       </c>
       <c r="E121" s="47"/>
@@ -5775,16 +5773,16 @@
       <c r="M121" s="30"/>
     </row>
     <row r="122" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A122" s="118" t="s">
+      <c r="A122" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="B122" s="118">
+      <c r="B122" s="105">
         <v>2100023365</v>
       </c>
-      <c r="C122" s="125" t="s">
+      <c r="C122" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="D122" s="110">
+      <c r="D122" s="97">
         <v>4</v>
       </c>
       <c r="E122" s="47"/>
@@ -5800,16 +5798,16 @@
       <c r="M122" s="30"/>
     </row>
     <row r="123" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A123" s="119" t="s">
+      <c r="A123" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="B123" s="119">
+      <c r="B123" s="106">
         <v>2100007744</v>
       </c>
-      <c r="C123" s="126" t="s">
+      <c r="C123" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="D123" s="110">
+      <c r="D123" s="97">
         <v>4</v>
       </c>
       <c r="E123" s="47"/>
@@ -5825,16 +5823,16 @@
       <c r="M123" s="30"/>
     </row>
     <row r="124" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A124" s="119" t="s">
+      <c r="A124" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="119" t="s">
+      <c r="B124" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="126" t="s">
+      <c r="C124" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="110">
+      <c r="D124" s="97">
         <v>4</v>
       </c>
       <c r="E124" s="47"/>
@@ -5850,16 +5848,16 @@
       <c r="M124" s="30"/>
     </row>
     <row r="125" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A125" s="119" t="s">
+      <c r="A125" s="106" t="s">
         <v>369</v>
       </c>
-      <c r="B125" s="119" t="s">
+      <c r="B125" s="106" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="126" t="s">
+      <c r="C125" s="113" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="110">
+      <c r="D125" s="97">
         <v>5</v>
       </c>
       <c r="E125" s="47"/>
@@ -5875,16 +5873,16 @@
       <c r="M125" s="30"/>
     </row>
     <row r="126" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A126" s="119" t="s">
+      <c r="A126" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="B126" s="119" t="s">
+      <c r="B126" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="126" t="s">
+      <c r="C126" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="110">
+      <c r="D126" s="97">
         <v>1</v>
       </c>
       <c r="E126" s="47"/>
@@ -5900,16 +5898,16 @@
       <c r="M126" s="30"/>
     </row>
     <row r="127" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A127" s="119" t="s">
+      <c r="A127" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="B127" s="119" t="s">
+      <c r="B127" s="106" t="s">
         <v>375</v>
       </c>
-      <c r="C127" s="126" t="s">
+      <c r="C127" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="D127" s="110">
+      <c r="D127" s="97">
         <v>4</v>
       </c>
       <c r="E127" s="47"/>
@@ -5925,10 +5923,10 @@
       <c r="M127" s="30"/>
     </row>
     <row r="128" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A128" s="119"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="122">
+      <c r="A128" s="106"/>
+      <c r="B128" s="106"/>
+      <c r="C128" s="113"/>
+      <c r="D128" s="109">
         <v>142</v>
       </c>
       <c r="E128" s="47"/>
@@ -5944,16 +5942,16 @@
       <c r="M128" s="30"/>
     </row>
     <row r="129" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A129" s="112" t="s">
+      <c r="A129" s="99" t="s">
         <v>285</v>
       </c>
-      <c r="B129" s="111" t="s">
+      <c r="B129" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="C129" s="116" t="s">
+      <c r="C129" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="D129" s="110">
+      <c r="D129" s="97">
         <v>2</v>
       </c>
       <c r="E129" s="47"/>
@@ -5969,16 +5967,16 @@
       <c r="M129" s="30"/>
     </row>
     <row r="130" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A130" s="112" t="s">
+      <c r="A130" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="B130" s="111" t="s">
+      <c r="B130" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="116" t="s">
+      <c r="C130" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="D130" s="110">
+      <c r="D130" s="97">
         <v>2</v>
       </c>
       <c r="E130" s="47"/>
@@ -5994,19 +5992,19 @@
       <c r="M130" s="30"/>
     </row>
     <row r="131" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A131" s="112" t="s">
+      <c r="A131" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="B131" s="111" t="s">
+      <c r="B131" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="C131" s="116" t="s">
+      <c r="C131" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="D131" s="110">
+      <c r="D131" s="97">
         <v>2</v>
       </c>
-      <c r="E131" s="109"/>
+      <c r="E131" s="96"/>
       <c r="F131" s="59">
         <v>40</v>
       </c>
@@ -6019,19 +6017,19 @@
       <c r="M131" s="30"/>
     </row>
     <row r="132" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A132" s="112" t="s">
+      <c r="A132" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="111" t="s">
+      <c r="B132" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="116" t="s">
+      <c r="C132" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="D132" s="110">
+      <c r="D132" s="97">
         <v>2</v>
       </c>
-      <c r="E132" s="111"/>
+      <c r="E132" s="98"/>
       <c r="F132" s="59">
         <v>40</v>
       </c>
@@ -6041,19 +6039,19 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A133" s="112" t="s">
+      <c r="A133" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="111" t="s">
+      <c r="B133" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C133" s="116" t="s">
+      <c r="C133" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="D133" s="110">
+      <c r="D133" s="97">
         <v>2</v>
       </c>
-      <c r="E133" s="111"/>
+      <c r="E133" s="98"/>
       <c r="F133" s="59">
         <v>40</v>
       </c>
@@ -6063,19 +6061,19 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A134" s="112" t="s">
+      <c r="A134" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B134" s="111" t="s">
+      <c r="B134" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C134" s="116" t="s">
+      <c r="C134" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="D134" s="110">
+      <c r="D134" s="97">
         <v>2</v>
       </c>
-      <c r="E134" s="111"/>
+      <c r="E134" s="98"/>
       <c r="F134" s="59">
         <v>40</v>
       </c>
@@ -6085,19 +6083,19 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A135" s="112" t="s">
+      <c r="A135" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="111" t="s">
+      <c r="B135" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="116" t="s">
+      <c r="C135" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D135" s="110">
+      <c r="D135" s="97">
         <v>2</v>
       </c>
-      <c r="E135" s="111"/>
+      <c r="E135" s="98"/>
       <c r="F135" s="59">
         <v>40</v>
       </c>
@@ -6107,19 +6105,19 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A136" s="112" t="s">
+      <c r="A136" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="111" t="s">
+      <c r="B136" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C136" s="116" t="s">
+      <c r="C136" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D136" s="110">
+      <c r="D136" s="97">
         <v>2</v>
       </c>
-      <c r="E136" s="111"/>
+      <c r="E136" s="98"/>
       <c r="F136" s="59">
         <v>40</v>
       </c>
@@ -6129,19 +6127,19 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A137" s="112" t="s">
+      <c r="A137" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="B137" s="111" t="s">
+      <c r="B137" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="116" t="s">
+      <c r="C137" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="110">
+      <c r="D137" s="97">
         <v>2</v>
       </c>
-      <c r="E137" s="111"/>
+      <c r="E137" s="98"/>
       <c r="F137" s="59">
         <v>40</v>
       </c>
@@ -6151,30 +6149,30 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A138" s="112"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="116"/>
-      <c r="D138" s="122">
+      <c r="A138" s="99"/>
+      <c r="B138" s="98"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="109">
         <v>18</v>
       </c>
-      <c r="E138" s="137"/>
-      <c r="F138" s="126"/>
-      <c r="G138" s="126"/>
+      <c r="E138" s="124"/>
+      <c r="F138" s="113"/>
+      <c r="G138" s="113"/>
     </row>
     <row r="139" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A139" s="112" t="s">
+      <c r="A139" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B139" s="111">
+      <c r="B139" s="98">
         <v>210228152</v>
       </c>
-      <c r="C139" s="116" t="s">
+      <c r="C139" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="110">
+      <c r="D139" s="97">
         <v>6</v>
       </c>
-      <c r="E139" s="137"/>
+      <c r="E139" s="124"/>
       <c r="F139" s="59">
         <v>40</v>
       </c>
@@ -6184,852 +6182,852 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A140" s="126"/>
-      <c r="B140" s="113"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="137"/>
-      <c r="E140" s="137"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="126"/>
+      <c r="A140" s="113"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="124"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="113"/>
+      <c r="G140" s="113"/>
     </row>
     <row r="141" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A141" s="113">
+      <c r="A141" s="100">
         <v>309010</v>
       </c>
-      <c r="B141" s="138" t="s">
+      <c r="B141" s="125" t="s">
         <v>381</v>
       </c>
-      <c r="C141" s="95" t="s">
+      <c r="C141" s="82" t="s">
         <v>379</v>
       </c>
-      <c r="D141" s="141">
-        <v>1</v>
-      </c>
-      <c r="E141" s="139"/>
-      <c r="F141" s="144">
+      <c r="D141" s="128">
+        <v>1</v>
+      </c>
+      <c r="E141" s="126"/>
+      <c r="F141" s="131">
         <v>600</v>
       </c>
-      <c r="G141" s="144">
+      <c r="G141" s="131">
         <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A142" s="113">
+      <c r="A142" s="100">
         <v>309025</v>
       </c>
-      <c r="B142" s="138" t="s">
+      <c r="B142" s="125" t="s">
         <v>382</v>
       </c>
-      <c r="C142" s="95" t="s">
+      <c r="C142" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="D142" s="141">
-        <v>1</v>
-      </c>
-      <c r="E142" s="139"/>
-      <c r="F142" s="145">
+      <c r="D142" s="128">
+        <v>1</v>
+      </c>
+      <c r="E142" s="126"/>
+      <c r="F142" s="132">
         <v>850</v>
       </c>
-      <c r="G142" s="145">
+      <c r="G142" s="132">
         <v>850</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A143" s="126"/>
-      <c r="B143" s="140"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="139"/>
-      <c r="E143" s="139"/>
-      <c r="F143" s="142"/>
-      <c r="G143" s="142"/>
-    </row>
-    <row r="144" spans="1:13" s="108" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A144" s="143"/>
-      <c r="B144" s="135"/>
-      <c r="C144" s="132"/>
-      <c r="D144" s="133"/>
-      <c r="E144" s="133"/>
-      <c r="F144" s="134"/>
-      <c r="G144" s="134"/>
-    </row>
-    <row r="145" spans="1:7" s="108" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A145" s="143"/>
-      <c r="B145" s="135"/>
-      <c r="C145" s="132"/>
-      <c r="D145" s="133"/>
-      <c r="E145" s="133"/>
-      <c r="F145" s="146" t="s">
+      <c r="A143" s="113"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="126"/>
+      <c r="E143" s="126"/>
+      <c r="F143" s="129"/>
+      <c r="G143" s="129"/>
+    </row>
+    <row r="144" spans="1:13" s="95" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A144" s="130"/>
+      <c r="B144" s="122"/>
+      <c r="C144" s="119"/>
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="121"/>
+      <c r="G144" s="121"/>
+    </row>
+    <row r="145" spans="1:7" s="95" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A145" s="130"/>
+      <c r="B145" s="122"/>
+      <c r="C145" s="119"/>
+      <c r="D145" s="120"/>
+      <c r="E145" s="120"/>
+      <c r="F145" s="133" t="s">
         <v>383</v>
       </c>
-      <c r="G145" s="147">
+      <c r="G145" s="134">
         <f>SUM(G24:G144)</f>
         <v>34110</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="108" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A146" s="143"/>
-      <c r="B146" s="135"/>
-      <c r="C146" s="132"/>
-      <c r="D146" s="133"/>
-      <c r="E146" s="133"/>
-      <c r="F146" s="146" t="s">
+    <row r="146" spans="1:7" s="95" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A146" s="130"/>
+      <c r="B146" s="122"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="120"/>
+      <c r="E146" s="120"/>
+      <c r="F146" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="G146" s="147">
+      <c r="G146" s="134">
         <f>G145*0.15</f>
         <v>5116.5</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B147" s="131"/>
-      <c r="C147" s="132"/>
-      <c r="D147" s="133"/>
-      <c r="E147" s="133"/>
-      <c r="F147" s="146" t="s">
+      <c r="B147" s="118"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="120"/>
+      <c r="E147" s="120"/>
+      <c r="F147" s="133" t="s">
         <v>385</v>
       </c>
-      <c r="G147" s="147">
+      <c r="G147" s="134">
         <f>SUM(G145:G146)</f>
         <v>39226.5</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B148" s="130"/>
-      <c r="C148" s="130" t="s">
+      <c r="B148" s="117"/>
+      <c r="C148" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="D148" s="133"/>
-      <c r="E148" s="133"/>
-      <c r="F148" s="134"/>
-      <c r="G148" s="134"/>
+      <c r="D148" s="120"/>
+      <c r="E148" s="120"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="121"/>
     </row>
     <row r="149" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B149" s="130" t="s">
+      <c r="B149" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C149" s="130" t="s">
+      <c r="C149" s="117" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B150" s="96">
+      <c r="B150" s="83">
         <v>2</v>
       </c>
-      <c r="C150" s="97" t="s">
+      <c r="C150" s="84" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B151" s="96">
-        <v>1</v>
-      </c>
-      <c r="C151" s="97" t="s">
+      <c r="B151" s="83">
+        <v>1</v>
+      </c>
+      <c r="C151" s="84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B152" s="96">
-        <v>1</v>
-      </c>
-      <c r="C152" s="97" t="s">
+      <c r="B152" s="83">
+        <v>1</v>
+      </c>
+      <c r="C152" s="84" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B153" s="96">
-        <v>1</v>
-      </c>
-      <c r="C153" s="97" t="s">
+      <c r="B153" s="83">
+        <v>1</v>
+      </c>
+      <c r="C153" s="84" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B154" s="96">
-        <v>1</v>
-      </c>
-      <c r="C154" s="97" t="s">
+      <c r="B154" s="83">
+        <v>1</v>
+      </c>
+      <c r="C154" s="84" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B155" s="96">
-        <v>1</v>
-      </c>
-      <c r="C155" s="97" t="s">
+      <c r="B155" s="83">
+        <v>1</v>
+      </c>
+      <c r="C155" s="84" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B156" s="96">
-        <v>1</v>
-      </c>
-      <c r="C156" s="97" t="s">
+      <c r="B156" s="83">
+        <v>1</v>
+      </c>
+      <c r="C156" s="84" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B157" s="96">
-        <v>1</v>
-      </c>
-      <c r="C157" s="97" t="s">
+      <c r="B157" s="83">
+        <v>1</v>
+      </c>
+      <c r="C157" s="84" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B158" s="96">
+      <c r="B158" s="83">
         <v>3</v>
       </c>
-      <c r="C158" s="97" t="s">
+      <c r="C158" s="84" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B159" s="96">
-        <v>1</v>
-      </c>
-      <c r="C159" s="97" t="s">
+      <c r="B159" s="83">
+        <v>1</v>
+      </c>
+      <c r="C159" s="84" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.149999999999999" customHeight="1">
-      <c r="B160" s="96">
-        <v>1</v>
-      </c>
-      <c r="C160" s="97" t="s">
+      <c r="B160" s="83">
+        <v>1</v>
+      </c>
+      <c r="C160" s="84" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B161" s="96">
-        <v>1</v>
-      </c>
-      <c r="C161" s="97" t="s">
+      <c r="B161" s="83">
+        <v>1</v>
+      </c>
+      <c r="C161" s="84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B162" s="96">
-        <v>1</v>
-      </c>
-      <c r="C162" s="97" t="s">
+      <c r="B162" s="83">
+        <v>1</v>
+      </c>
+      <c r="C162" s="84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B163" s="96">
-        <v>1</v>
-      </c>
-      <c r="C163" s="97" t="s">
+      <c r="B163" s="83">
+        <v>1</v>
+      </c>
+      <c r="C163" s="84" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B164" s="96">
-        <v>1</v>
-      </c>
-      <c r="C164" s="97" t="s">
+      <c r="B164" s="83">
+        <v>1</v>
+      </c>
+      <c r="C164" s="84" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B165" s="96">
-        <v>1</v>
-      </c>
-      <c r="C165" s="97" t="s">
+      <c r="B165" s="83">
+        <v>1</v>
+      </c>
+      <c r="C165" s="84" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B166" s="96">
-        <v>1</v>
-      </c>
-      <c r="C166" s="97" t="s">
+      <c r="B166" s="83">
+        <v>1</v>
+      </c>
+      <c r="C166" s="84" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B167" s="96">
-        <v>1</v>
-      </c>
-      <c r="C167" s="97" t="s">
+      <c r="B167" s="83">
+        <v>1</v>
+      </c>
+      <c r="C167" s="84" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B168" s="96">
+      <c r="B168" s="83">
         <v>2</v>
       </c>
-      <c r="C168" s="98" t="s">
+      <c r="C168" s="85" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B169" s="96">
-        <v>1</v>
-      </c>
-      <c r="C169" s="97" t="s">
+      <c r="B169" s="83">
+        <v>1</v>
+      </c>
+      <c r="C169" s="84" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B170" s="96">
+      <c r="B170" s="83">
         <v>3</v>
       </c>
-      <c r="C170" s="97" t="s">
+      <c r="C170" s="84" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B171" s="96">
-        <v>1</v>
-      </c>
-      <c r="C171" s="97" t="s">
+      <c r="B171" s="83">
+        <v>1</v>
+      </c>
+      <c r="C171" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B172" s="96">
-        <v>1</v>
-      </c>
-      <c r="C172" s="97" t="s">
+      <c r="B172" s="83">
+        <v>1</v>
+      </c>
+      <c r="C172" s="84" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B173" s="96">
+      <c r="B173" s="83">
         <v>2</v>
       </c>
-      <c r="C173" s="97" t="s">
+      <c r="C173" s="84" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="174" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B174" s="96">
+      <c r="B174" s="83">
         <v>2</v>
       </c>
-      <c r="C174" s="97" t="s">
+      <c r="C174" s="84" t="s">
         <v>223</v>
       </c>
       <c r="D174" s="55"/>
       <c r="E174" s="55"/>
     </row>
     <row r="175" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B175" s="96"/>
-      <c r="C175" s="97" t="s">
+      <c r="B175" s="83"/>
+      <c r="C175" s="84" t="s">
         <v>47</v>
       </c>
       <c r="D175" s="55"/>
       <c r="E175" s="55"/>
     </row>
     <row r="176" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B176" s="130">
+      <c r="B176" s="117">
         <f>SUM(B150:B175)</f>
         <v>33</v>
       </c>
-      <c r="C176" s="97"/>
+      <c r="C176" s="84"/>
       <c r="D176" s="55"/>
       <c r="E176" s="55"/>
     </row>
     <row r="177" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B177" s="111"/>
-      <c r="C177" s="109"/>
-      <c r="D177" s="128"/>
+      <c r="B177" s="98"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="115"/>
       <c r="E177" s="55"/>
     </row>
     <row r="178" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B178" s="129"/>
-      <c r="C178" s="130" t="s">
+      <c r="B178" s="116"/>
+      <c r="C178" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="D178" s="128"/>
+      <c r="D178" s="115"/>
       <c r="E178" s="55"/>
     </row>
     <row r="179" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B179" s="130" t="s">
+      <c r="B179" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="130" t="s">
+      <c r="C179" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D179" s="128"/>
+      <c r="D179" s="115"/>
       <c r="E179" s="55"/>
     </row>
     <row r="180" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B180" s="114"/>
-      <c r="C180" s="115" t="s">
+      <c r="B180" s="101"/>
+      <c r="C180" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="D180" s="128"/>
+      <c r="D180" s="115"/>
       <c r="E180" s="55"/>
     </row>
     <row r="181" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B181" s="113">
-        <v>1</v>
-      </c>
-      <c r="C181" s="116" t="s">
+      <c r="B181" s="100">
+        <v>1</v>
+      </c>
+      <c r="C181" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="D181" s="128"/>
+      <c r="D181" s="115"/>
       <c r="E181" s="55"/>
     </row>
     <row r="182" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B182" s="113">
+      <c r="B182" s="100">
         <v>2</v>
       </c>
-      <c r="C182" s="116" t="s">
+      <c r="C182" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="D182" s="128"/>
+      <c r="D182" s="115"/>
       <c r="E182" s="55"/>
     </row>
     <row r="183" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B183" s="113">
+      <c r="B183" s="100">
         <v>3</v>
       </c>
-      <c r="C183" s="116" t="s">
+      <c r="C183" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="D183" s="128"/>
+      <c r="D183" s="115"/>
       <c r="E183" s="55"/>
     </row>
     <row r="184" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B184" s="113">
-        <v>1</v>
-      </c>
-      <c r="C184" s="116" t="s">
+      <c r="B184" s="100">
+        <v>1</v>
+      </c>
+      <c r="C184" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="D184" s="128"/>
+      <c r="D184" s="115"/>
       <c r="E184" s="55"/>
     </row>
     <row r="185" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B185" s="113">
-        <v>1</v>
-      </c>
-      <c r="C185" s="116" t="s">
+      <c r="B185" s="100">
+        <v>1</v>
+      </c>
+      <c r="C185" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="D185" s="128"/>
+      <c r="D185" s="115"/>
       <c r="E185" s="55"/>
     </row>
     <row r="186" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B186" s="113">
+      <c r="B186" s="100">
         <v>2</v>
       </c>
-      <c r="C186" s="116" t="s">
+      <c r="C186" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="D186" s="128"/>
+      <c r="D186" s="115"/>
       <c r="E186" s="55"/>
     </row>
     <row r="187" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B187" s="113">
+      <c r="B187" s="100">
         <v>2</v>
       </c>
-      <c r="C187" s="116" t="s">
+      <c r="C187" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="D187" s="128"/>
+      <c r="D187" s="115"/>
       <c r="E187" s="55"/>
     </row>
     <row r="188" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B188" s="113">
-        <v>1</v>
-      </c>
-      <c r="C188" s="116" t="s">
+      <c r="B188" s="100">
+        <v>1</v>
+      </c>
+      <c r="C188" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D188" s="128"/>
+      <c r="D188" s="115"/>
       <c r="E188" s="55"/>
     </row>
     <row r="189" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B189" s="113">
-        <v>1</v>
-      </c>
-      <c r="C189" s="116" t="s">
+      <c r="B189" s="100">
+        <v>1</v>
+      </c>
+      <c r="C189" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="D189" s="128"/>
+      <c r="D189" s="115"/>
       <c r="E189" s="55"/>
     </row>
     <row r="190" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B190" s="113">
-        <v>1</v>
-      </c>
-      <c r="C190" s="116" t="s">
+      <c r="B190" s="100">
+        <v>1</v>
+      </c>
+      <c r="C190" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="D190" s="128"/>
+      <c r="D190" s="115"/>
       <c r="E190" s="55"/>
     </row>
     <row r="191" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B191" s="113">
+      <c r="B191" s="100">
         <v>2</v>
       </c>
-      <c r="C191" s="116" t="s">
+      <c r="C191" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="D191" s="128"/>
+      <c r="D191" s="115"/>
       <c r="E191" s="55"/>
     </row>
     <row r="192" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B192" s="113">
+      <c r="B192" s="100">
         <v>2</v>
       </c>
-      <c r="C192" s="116" t="s">
+      <c r="C192" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="D192" s="128"/>
+      <c r="D192" s="115"/>
       <c r="E192" s="55"/>
     </row>
     <row r="193" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B193" s="113">
-        <v>1</v>
-      </c>
-      <c r="C193" s="116" t="s">
+      <c r="B193" s="100">
+        <v>1</v>
+      </c>
+      <c r="C193" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="D193" s="128"/>
+      <c r="D193" s="115"/>
       <c r="E193" s="55"/>
     </row>
     <row r="194" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B194" s="113">
-        <v>1</v>
-      </c>
-      <c r="C194" s="116" t="s">
+      <c r="B194" s="100">
+        <v>1</v>
+      </c>
+      <c r="C194" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="D194" s="128"/>
+      <c r="D194" s="115"/>
       <c r="E194" s="55"/>
     </row>
     <row r="195" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B195" s="113">
+      <c r="B195" s="100">
         <v>2</v>
       </c>
-      <c r="C195" s="116" t="s">
+      <c r="C195" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="D195" s="128"/>
+      <c r="D195" s="115"/>
       <c r="E195" s="55"/>
     </row>
     <row r="196" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B196" s="113"/>
-      <c r="C196" s="116" t="s">
+      <c r="B196" s="100"/>
+      <c r="C196" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D196" s="128"/>
+      <c r="D196" s="115"/>
       <c r="E196" s="55"/>
     </row>
     <row r="197" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B197" s="120">
+      <c r="B197" s="107">
         <f>SUM(B181:B196)</f>
         <v>23</v>
       </c>
-      <c r="C197" s="116"/>
-      <c r="D197" s="128"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="115"/>
       <c r="E197" s="55"/>
     </row>
     <row r="198" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B198" s="120"/>
-      <c r="C198" s="120" t="s">
+      <c r="B198" s="107"/>
+      <c r="C198" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="D198" s="128"/>
+      <c r="D198" s="115"/>
       <c r="E198" s="55"/>
     </row>
     <row r="199" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B199" s="113">
+      <c r="B199" s="100">
         <v>2</v>
       </c>
-      <c r="C199" s="116" t="s">
+      <c r="C199" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="D199" s="128"/>
+      <c r="D199" s="115"/>
       <c r="E199" s="55"/>
     </row>
     <row r="200" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B200" s="113">
+      <c r="B200" s="100">
         <v>2</v>
       </c>
-      <c r="C200" s="116" t="s">
+      <c r="C200" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="D200" s="128"/>
+      <c r="D200" s="115"/>
       <c r="E200" s="55"/>
     </row>
     <row r="201" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B201" s="113">
-        <v>1</v>
-      </c>
-      <c r="C201" s="116" t="s">
+      <c r="B201" s="100">
+        <v>1</v>
+      </c>
+      <c r="C201" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="D201" s="128"/>
+      <c r="D201" s="115"/>
       <c r="E201" s="55"/>
     </row>
     <row r="202" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B202" s="113">
+      <c r="B202" s="100">
         <v>3</v>
       </c>
-      <c r="C202" s="116" t="s">
+      <c r="C202" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="D202" s="128"/>
+      <c r="D202" s="115"/>
       <c r="E202" s="55"/>
     </row>
     <row r="203" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B203" s="113">
-        <v>1</v>
-      </c>
-      <c r="C203" s="116" t="s">
+      <c r="B203" s="100">
+        <v>1</v>
+      </c>
+      <c r="C203" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="D203" s="128"/>
+      <c r="D203" s="115"/>
       <c r="E203" s="55"/>
     </row>
     <row r="204" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B204" s="113">
-        <v>1</v>
-      </c>
-      <c r="C204" s="116" t="s">
+      <c r="B204" s="100">
+        <v>1</v>
+      </c>
+      <c r="C204" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="D204" s="128"/>
+      <c r="D204" s="115"/>
       <c r="E204" s="55"/>
     </row>
     <row r="205" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B205" s="113">
-        <v>1</v>
-      </c>
-      <c r="C205" s="116" t="s">
+      <c r="B205" s="100">
+        <v>1</v>
+      </c>
+      <c r="C205" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="D205" s="128"/>
+      <c r="D205" s="115"/>
       <c r="E205" s="55"/>
     </row>
     <row r="206" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B206" s="113">
-        <v>1</v>
-      </c>
-      <c r="C206" s="116" t="s">
+      <c r="B206" s="100">
+        <v>1</v>
+      </c>
+      <c r="C206" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D206" s="128"/>
+      <c r="D206" s="115"/>
       <c r="E206" s="55"/>
     </row>
     <row r="207" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B207" s="113">
-        <v>1</v>
-      </c>
-      <c r="C207" s="116" t="s">
+      <c r="B207" s="100">
+        <v>1</v>
+      </c>
+      <c r="C207" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="D207" s="128"/>
+      <c r="D207" s="115"/>
       <c r="E207" s="55"/>
     </row>
     <row r="208" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B208" s="113">
+      <c r="B208" s="100">
         <v>2</v>
       </c>
-      <c r="C208" s="116" t="s">
+      <c r="C208" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="D208" s="128"/>
+      <c r="D208" s="115"/>
       <c r="E208" s="55"/>
     </row>
     <row r="209" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B209" s="113">
+      <c r="B209" s="100">
         <v>2</v>
       </c>
-      <c r="C209" s="116" t="s">
+      <c r="C209" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="D209" s="128"/>
+      <c r="D209" s="115"/>
       <c r="E209" s="55"/>
     </row>
     <row r="210" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B210" s="113">
+      <c r="B210" s="100">
         <v>3</v>
       </c>
-      <c r="C210" s="116" t="s">
+      <c r="C210" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="D210" s="128"/>
+      <c r="D210" s="115"/>
       <c r="E210" s="55"/>
     </row>
     <row r="211" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B211" s="113">
-        <v>1</v>
-      </c>
-      <c r="C211" s="116" t="s">
+      <c r="B211" s="100">
+        <v>1</v>
+      </c>
+      <c r="C211" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="D211" s="128"/>
+      <c r="D211" s="115"/>
       <c r="E211" s="55"/>
     </row>
     <row r="212" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B212" s="113">
+      <c r="B212" s="100">
         <v>2</v>
       </c>
-      <c r="C212" s="116" t="s">
+      <c r="C212" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="D212" s="128"/>
+      <c r="D212" s="115"/>
       <c r="E212" s="55"/>
     </row>
     <row r="213" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B213" s="113">
-        <v>1</v>
-      </c>
-      <c r="C213" s="116" t="s">
+      <c r="B213" s="100">
+        <v>1</v>
+      </c>
+      <c r="C213" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="D213" s="128"/>
+      <c r="D213" s="115"/>
       <c r="E213" s="55"/>
     </row>
     <row r="214" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B214" s="113">
-        <v>1</v>
-      </c>
-      <c r="C214" s="116" t="s">
+      <c r="B214" s="100">
+        <v>1</v>
+      </c>
+      <c r="C214" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="D214" s="128"/>
+      <c r="D214" s="115"/>
       <c r="E214" s="55"/>
     </row>
     <row r="215" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B215" s="113">
-        <v>1</v>
-      </c>
-      <c r="C215" s="116" t="s">
+      <c r="B215" s="100">
+        <v>1</v>
+      </c>
+      <c r="C215" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="D215" s="128"/>
+      <c r="D215" s="115"/>
       <c r="E215" s="55"/>
     </row>
     <row r="216" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B216" s="120">
+      <c r="B216" s="107">
         <f>SUM(B199:B215)</f>
         <v>26</v>
       </c>
-      <c r="C216" s="116"/>
-      <c r="D216" s="128"/>
+      <c r="C216" s="103"/>
+      <c r="D216" s="115"/>
       <c r="E216" s="55"/>
     </row>
     <row r="217" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B217" s="120"/>
-      <c r="C217" s="120" t="s">
+      <c r="B217" s="107"/>
+      <c r="C217" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D217" s="128"/>
+      <c r="D217" s="115"/>
       <c r="E217" s="55"/>
     </row>
     <row r="218" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B218" s="113">
+      <c r="B218" s="100">
         <v>2</v>
       </c>
-      <c r="C218" s="116" t="s">
+      <c r="C218" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="D218" s="128"/>
+      <c r="D218" s="115"/>
       <c r="E218" s="55"/>
     </row>
     <row r="219" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B219" s="113">
-        <v>1</v>
-      </c>
-      <c r="C219" s="116" t="s">
+      <c r="B219" s="100">
+        <v>1</v>
+      </c>
+      <c r="C219" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="D219" s="128"/>
+      <c r="D219" s="115"/>
       <c r="E219" s="55"/>
     </row>
     <row r="220" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B220" s="113">
-        <v>1</v>
-      </c>
-      <c r="C220" s="116" t="s">
+      <c r="B220" s="100">
+        <v>1</v>
+      </c>
+      <c r="C220" s="103" t="s">
         <v>255</v>
       </c>
-      <c r="D220" s="128"/>
+      <c r="D220" s="115"/>
       <c r="E220" s="55"/>
     </row>
     <row r="221" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B221" s="113">
-        <v>1</v>
-      </c>
-      <c r="C221" s="116" t="s">
+      <c r="B221" s="100">
+        <v>1</v>
+      </c>
+      <c r="C221" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="D221" s="128"/>
+      <c r="D221" s="115"/>
       <c r="E221" s="55"/>
     </row>
     <row r="222" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B222" s="113">
+      <c r="B222" s="100">
         <v>2</v>
       </c>
-      <c r="C222" s="127" t="s">
+      <c r="C222" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="D222" s="128"/>
+      <c r="D222" s="115"/>
       <c r="E222" s="55"/>
     </row>
     <row r="223" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B223" s="113">
+      <c r="B223" s="100">
         <v>2</v>
       </c>
-      <c r="C223" s="116" t="s">
+      <c r="C223" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="D223" s="136"/>
+      <c r="D223" s="123"/>
       <c r="E223" s="55"/>
     </row>
     <row r="224" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B224" s="113">
+      <c r="B224" s="100">
         <v>2</v>
       </c>
-      <c r="C224" s="116" t="s">
+      <c r="C224" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="D224" s="121"/>
+      <c r="D224" s="108"/>
       <c r="E224" s="55"/>
     </row>
     <row r="225" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B225" s="113">
-        <v>1</v>
-      </c>
-      <c r="C225" s="127" t="s">
+      <c r="B225" s="100">
+        <v>1</v>
+      </c>
+      <c r="C225" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D225" s="111"/>
+      <c r="D225" s="98"/>
       <c r="E225" s="55"/>
     </row>
     <row r="226" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B226" s="113">
+      <c r="B226" s="100">
         <v>2</v>
       </c>
-      <c r="C226" s="116" t="s">
+      <c r="C226" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="D226" s="111"/>
+      <c r="D226" s="98"/>
       <c r="E226" s="55"/>
     </row>
     <row r="227" spans="2:5" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B227" s="113">
-        <v>1</v>
-      </c>
-      <c r="C227" s="116" t="s">
+      <c r="B227" s="100">
+        <v>1</v>
+      </c>
+      <c r="C227" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="D227" s="111"/>
+      <c r="D227" s="98"/>
       <c r="E227" s="55"/>
     </row>
     <row r="228" spans="2:5" ht="20.149999999999999" customHeight="1">
-      <c r="B228" s="120">
+      <c r="B228" s="107">
         <f>SUM(B218:B227)</f>
         <v>15</v>
       </c>
-      <c r="C228" s="116"/>
+      <c r="C228" s="103"/>
       <c r="D228" s="56"/>
     </row>
     <row r="229" spans="2:5" ht="20.149999999999999" customHeight="1">
@@ -7219,13 +7217,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="A50:A131">
